--- a/calculation/eda.xlsx
+++ b/calculation/eda.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHI\2_RESEARCH\Research\DigitalPathology\Code\to-plot\calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1DE4E-C85F-4601-99D0-9D0F00C463E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EE3DD8-08BE-48A4-9B84-3516CE6949DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DFB0C618-2347-495E-9D3C-1E2447BE7580}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DFB0C618-2347-495E-9D3C-1E2447BE7580}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,12 +142,13 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="6"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -158,27 +159,28 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Data distribution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for Subtyping task</a:t>
+              <a:t>Data distribution for Subtyping task</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28582874015748039"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -194,14 +196,11 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -210,7 +209,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24388976377952756"/>
+          <c:y val="0.10089627745791424"/>
+          <c:w val="0.72277690288713914"/>
+          <c:h val="0.70047144215359458"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -220,7 +229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>EDA!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -231,75 +240,19 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="5799C6"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>EDA!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -319,7 +272,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>EDA!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -340,12 +293,11 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E68-4F2F-A7E2-2AFCEEC96BCC}"/>
+              <c16:uniqueId val="{00000000-5E41-4E65-9024-31C93FFFDF22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -365,16 +317,15 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="97000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -388,14 +339,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -415,20 +363,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -438,28 +372,28 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t># of</a:t>
+                  <a:t>Title</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> samples</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.11666666666666667"/>
+              <c:y val="0.37728191805272587"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -475,14 +409,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -490,13 +421,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -507,14 +440,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -524,10 +454,47 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="5799C6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -537,16 +504,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -556,7 +516,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -576,12 +542,13 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -592,28 +559,28 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Data distribution</a:t>
+              <a:t>Data distribution for Staging task</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for Staging task</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28582874015748039"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -629,14 +596,11 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -645,7 +609,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24388976377952756"/>
+          <c:y val="0.10089627745791424"/>
+          <c:w val="0.72277690288713914"/>
+          <c:h val="0.70047144215359458"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -655,7 +629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>EDA!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -666,17 +640,19 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="5799C6"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>EDA!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -693,7 +669,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:f>EDA!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -711,7 +687,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F871-442D-80A7-8E25A95E36DA}"/>
+              <c16:uniqueId val="{00000000-5E41-4E65-9024-31C93FFFDF22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -723,29 +699,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="667667352"/>
-        <c:axId val="667667712"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="399457328"/>
+        <c:axId val="399437776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="667667352"/>
+        <c:axId val="399457328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="97000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -759,20 +733,17 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667667712"/>
+        <c:crossAx val="399437776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,34 +751,79 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="667667712"/>
+        <c:axId val="399437776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.11666666666666667"/>
+              <c:y val="0.37728191805272587"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -818,27 +834,61 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667667352"/>
+        <c:crossAx val="399457328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="5799C6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -848,16 +898,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -867,7 +910,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -881,48 +930,14 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1936,16 +1951,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2540000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>416104</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91179</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1972,16 +1987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>307664</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>30252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2142716</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2368,12 +2383,396 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="9Slide - 2021">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="092D6C"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="FCECD0"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4FC1E9"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="48CFAD"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A0D468"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFBD45"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FC6E51"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="ED5565"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="5D9CEC"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="AC92EC"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="9Slide Fonts">
+    <a:majorFont>
+      <a:latin typeface="#9Slide02 Tieu de dai"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="#9Slide02 Noi dung dai"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="9Slide - 2021">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="092D6C"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="FCECD0"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4FC1E9"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="48CFAD"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A0D468"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFBD45"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FC6E51"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="ED5565"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="5D9CEC"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="AC92EC"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="9Slide Fonts">
+    <a:majorFont>
+      <a:latin typeface="#9Slide02 Tieu de dai"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="#9Slide02 Noi dung dai"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DD2AE5-16E4-4232-B961-468F3FD64FF7}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="117" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
